--- a/MyCompany/资源清单.xlsx
+++ b/MyCompany/资源清单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,363 +37,379 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>logo-black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司logo，白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司logo，黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunflower-black.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1496857239036-1fb137683000.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Application-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1437275537121-331a0457c8d6.jpg</t>
+  </si>
+  <si>
+    <t>Flower-Application-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1491926128795-d718e0a18a0d.jpg</t>
+  </si>
+  <si>
+    <t>Flower-Application-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1462275646964-a0e3386b89fa.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Application-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用展示图，仅应用于首页，应用-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用展示图，仅应用于首页，应用-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用展示图，仅应用于首页，应用-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用展示图，仅应用于首页，应用-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Product-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Product-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Product-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Product-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1500111709600-7761aa8216c7.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用场景，仅用于首页，场景-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Scene-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1533305304529-c629748d0ca2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用场景，仅用于首页，场景-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Scene-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1414541944151-2f3ec1cfd87d.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用场景，仅用于首页，场景-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Scene-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1471240946986-2c558419e9d6.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用场景，仅用于首页，场景-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower-Scene-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品展示图，应用于首页与专业产品，产品-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品展示图，应用于首页与专业产品，产品-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品展示图，应用于首页与专业产品，产品-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品展示图，应用于首页与专业产品，产品-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1536677813196-8fed27bcecdc.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品描述的背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1519856136673-1f0d88e5685a.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小叶5-9，连叶柄长5-13厘米；小叶片椭圆形或椭圆状倒卵形，长1.5-4.5厘米，宽1-2.5厘米，先端急尖或圆钝，基部圆形或宽楔形，边缘有尖锐锯齿，上面深绿色，无毛，叶脉下陷，有褶皱，下面灰绿色，中脉突起，网脉明显，密被绒毛和腺毛，有时腺毛不明显；叶柄和叶轴密被绒毛和腺毛；托叶大部贴生于叶柄，离生部分卵形，边缘有带腺锯齿，下面被绒毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品特点1的背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-Feature-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花单生于叶腋，或数朵簇生，苞片卵形，边缘有腺毛，外被绒毛；花梗长5 -22 5毫米，密被绒毛和腺毛；花直径4-5.5厘米；萼片卵状披针形，先端尾状渐尖，常有羽状裂片而扩展成叶状，上面有稀疏柔毛，下面密被柔毛和腺毛；花瓣倒卵形，重瓣至半重瓣，芳香，紫红色至白色；花柱离生，被毛，稍伸出萼筒口外，比雄蕊短很多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1517331245290-8ab345b4265d.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品特点2的背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-Feature-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品特点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品特点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果扁球形，直径2-2.5厘米，砖红色，肉质，平滑，萼片宿存。花期5-6月，果期8-9月。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品特点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-Feature-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品特点3的背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1509395828889-d50126d3fd14.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-variety-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-variety-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-variety-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-variety-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品品种-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品品种-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品品种-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品品种-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰为阳性植物，日照充分则花色浓，香味亦浓。生长季节日照少于8小时则徒长而不开花。对空气湿度要求不甚严格，气温低、湿度大时发生锈病和白粉病；开花季节要求空气有一定的湿度；高温干燥时产油率则会降低。玫瑰对土壤的酸碱度要求不严格，微酸性土壤至微碱性土壤均能正常生长。冬季有雪覆盖的地区能忍耐-38℃至-40℃的低温，无雪覆盖的地区也能耐-25℃至-30℃的低温，但不耐早春的旱风。土壤尚未解冻而地面风大的地区，枝条往往被风吹干；若土壤已解冻，根部不断向茎输送水分和养分，风不能造成严重危害。干燥度大于4的地区需要有灌溉条件才能正常发育。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-habitus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，习性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4，产品习性的背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1441312311734-f44cc0bda31d.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4,产地-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1546783177-2c290e5f4a0a.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-Area-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-Area-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product-4-Area-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4,产地-2</t>
+  </si>
+  <si>
+    <t>产品-4,产地-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品-4,产地-3</t>
+  </si>
+  <si>
+    <t>产品-4,产地-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气候特征：平阴县玫瑰镇属暖温带半湿润区大陆性季风气候，气候温和，四季分明。冬季寒冷少雪雨，春季干旱多风，夏季炎热多雨，秋季气爽，温差大。光照资源丰富，日照时数长，光照充足，年平均日照2484.7小时，以5月份日照时数为最多，平均为269.44小时，12月份最少，为164.4小时。年平均气温 13.6℃，7月份最高27.4℃，1月份最冷，平均为零下 1.9℃。年平均积温4920℃。平均霜期161.9天，最 多为181天，最少为127天。早霜始于10月中旬。晚 霜终于4月中旬，夜间凉爽，昼夜温差大，降雨量偏少， 且集中在盛夏季节，年际变化大，年平均降雨量为 658.6毫米，春季降雨量偏少，常年水量仅在84毫米，是年降雨量的12.8%。春季降雨量少，玫瑰花的病虫害发生轻，有利于花的生长发育及提高花的质量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气候特点：属暖温带季风性大陆性气候，冬冷夏热，秋凉春燥，四季分明，日照充足。年平均气温13.8度，年平均降雨量664.5毫米，日照2525.2小时，蒸发量1887.1毫米，无霜期209天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气候特点：永登县属大陆性干旱气候，年平均气温为5.9℃，年均降水量为260-280毫米，年日照2659小时，平均无霜期121天。四季分明，阳光充足，冬无严寒、夏无酷暑，气候温和。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1508598126084-9dfccbb92cd5.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1534492472349-181b5922f240.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1519058497187-7167f17c6daf(trans-back).png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1496175362769-08a34d630326(trans-back).png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1521497958168-875cd2b0a849(trans-back).png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo-1541143011610-fe5c3458686e(trans-back).png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰（学名：Rosa rugosa Thunb.）：原产地中国。属蔷薇目，蔷薇科落叶灌木，枝杆多针刺，奇数羽状复叶，小叶5-9片，椭圆形，有边刺。花瓣倒卵形，重瓣至半重瓣，花有紫红色、白色，果期8-9月，扁球形。枝条较为柔弱软垂且多密刺，每年花期只有一次，因此较少用于育种，近来其主要被重视的特性为抗病性与耐寒性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>logo-white</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logo-black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司logo，白色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司logo，黑色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sunflower-white.svg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sunflower-black.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1496857239036-1fb137683000.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Application-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1437275537121-331a0457c8d6.jpg</t>
-  </si>
-  <si>
-    <t>Flower-Application-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1491926128795-d718e0a18a0d.jpg</t>
-  </si>
-  <si>
-    <t>Flower-Application-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1462275646964-a0e3386b89fa.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Application-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用展示图，仅应用于首页，应用-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用展示图，仅应用于首页，应用-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用展示图，仅应用于首页，应用-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用展示图，仅应用于首页，应用-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Product-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Product-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Product-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Product-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1500111709600-7761aa8216c7.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用场景，仅用于首页，场景-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Scene-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1533305304529-c629748d0ca2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用场景，仅用于首页，场景-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Scene-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1414541944151-2f3ec1cfd87d.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用场景，仅用于首页，场景-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Scene-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1471240946986-2c558419e9d6.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用场景，仅用于首页，场景-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower-Scene-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品展示图，应用于首页与专业产品，产品-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品展示图，应用于首页与专业产品，产品-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品展示图，应用于首页与专业产品，产品-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品展示图，应用于首页与专业产品，产品-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1536677813196-8fed27bcecdc.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品描述的背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰（学名：Rosa rugosa Thunb.）：原产地中国。属蔷薇目，蔷薇科落叶灌木，枝杆多针刺，奇数羽状复叶，小叶5-9片，椭圆形，有边刺。花瓣倒卵形，重瓣至半重瓣，花有紫红色、白色，果期8-9月，扁球形。枝条较为柔弱软垂且多密刺，每年花期只有一次，因此较少用于育种，近来其主要被重视的特性为抗病性与耐寒性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1519856136673-1f0d88e5685a.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小叶5-9，连叶柄长5-13厘米；小叶片椭圆形或椭圆状倒卵形，长1.5-4.5厘米，宽1-2.5厘米，先端急尖或圆钝，基部圆形或宽楔形，边缘有尖锐锯齿，上面深绿色，无毛，叶脉下陷，有褶皱，下面灰绿色，中脉突起，网脉明显，密被绒毛和腺毛，有时腺毛不明显；叶柄和叶轴密被绒毛和腺毛；托叶大部贴生于叶柄，离生部分卵形，边缘有带腺锯齿，下面被绒毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品特点1的背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-Feature-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花单生于叶腋，或数朵簇生，苞片卵形，边缘有腺毛，外被绒毛；花梗长5 -22 5毫米，密被绒毛和腺毛；花直径4-5.5厘米；萼片卵状披针形，先端尾状渐尖，常有羽状裂片而扩展成叶状，上面有稀疏柔毛，下面密被柔毛和腺毛；花瓣倒卵形，重瓣至半重瓣，芳香，紫红色至白色；花柱离生，被毛，稍伸出萼筒口外，比雄蕊短很多。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1517331245290-8ab345b4265d.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品特点2的背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-Feature-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品特点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品特点2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果扁球形，直径2-2.5厘米，砖红色，肉质，平滑，萼片宿存。花期5-6月，果期8-9月。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品特点3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-Feature-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品特点3的背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1509395828889-d50126d3fd14.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-variety-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-variety-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-variety-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-variety-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品品种-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品品种-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品品种-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品品种-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰为阳性植物，日照充分则花色浓，香味亦浓。生长季节日照少于8小时则徒长而不开花。对空气湿度要求不甚严格，气温低、湿度大时发生锈病和白粉病；开花季节要求空气有一定的湿度；高温干燥时产油率则会降低。玫瑰对土壤的酸碱度要求不严格，微酸性土壤至微碱性土壤均能正常生长。冬季有雪覆盖的地区能忍耐-38℃至-40℃的低温，无雪覆盖的地区也能耐-25℃至-30℃的低温，但不耐早春的旱风。土壤尚未解冻而地面风大的地区，枝条往往被风吹干；若土壤已解冻，根部不断向茎输送水分和养分，风不能造成严重危害。干燥度大于4的地区需要有灌溉条件才能正常发育。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-habitus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，习性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4，产品习性的背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1441312311734-f44cc0bda31d.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4,产地-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1546783177-2c290e5f4a0a.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-Area-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-Area-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product-4-Area-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4,产地-2</t>
-  </si>
-  <si>
-    <t>产品-4,产地-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-4,产地-3</t>
-  </si>
-  <si>
-    <t>产品-4,产地-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气候特征：平阴县玫瑰镇属暖温带半湿润区大陆性季风气候，气候温和，四季分明。冬季寒冷少雪雨，春季干旱多风，夏季炎热多雨，秋季气爽，温差大。光照资源丰富，日照时数长，光照充足，年平均日照2484.7小时，以5月份日照时数为最多，平均为269.44小时，12月份最少，为164.4小时。年平均气温 13.6℃，7月份最高27.4℃，1月份最冷，平均为零下 1.9℃。年平均积温4920℃。平均霜期161.9天，最 多为181天，最少为127天。早霜始于10月中旬。晚 霜终于4月中旬，夜间凉爽，昼夜温差大，降雨量偏少， 且集中在盛夏季节，年际变化大，年平均降雨量为 658.6毫米，春季降雨量偏少，常年水量仅在84毫米，是年降雨量的12.8%。春季降雨量少，玫瑰花的病虫害发生轻，有利于花的生长发育及提高花的质量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气候特点：属暖温带季风性大陆性气候，冬冷夏热，秋凉春燥，四季分明，日照充足。年平均气温13.8度，年平均降雨量664.5毫米，日照2525.2小时，蒸发量1887.1毫米，无霜期209天。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气候特点：永登县属大陆性干旱气候，年平均气温为5.9℃，年均降水量为260-280毫米，年日照2659小时，平均无霜期121天。四季分明，阳光充足，冬无严寒、夏无酷暑，气候温和。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1508598126084-9dfccbb92cd5.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1534492472349-181b5922f240.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1519058497187-7167f17c6daf(trans-back).png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1496175362769-08a34d630326(trans-back).png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1521497958168-875cd2b0a849(trans-back).png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo-1541143011610-fe5c3458686e(trans-back).png</t>
+    <t>FileType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +486,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -486,7 +502,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,7 +579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,22 +788,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="53.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="53.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -797,453 +813,534 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>49</v>
+        <v>83</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1354,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1280,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1291,16 +1388,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1308,16 +1405,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1325,16 +1422,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1342,16 +1439,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1359,16 +1456,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1376,16 +1473,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1393,16 +1490,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1410,16 +1507,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">

--- a/MyCompany/资源清单.xlsx
+++ b/MyCompany/资源清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图片资源" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,10 @@
   </si>
   <si>
     <t>png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>96</v>
@@ -1353,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
